--- a/otros/Pauta_Trabajo_Final_Front-End.xlsx
+++ b/otros/Pauta_Trabajo_Final_Front-End.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="260" windowWidth="20460" windowHeight="18720" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="40" windowWidth="20460" windowHeight="18720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,14 +184,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,9 +283,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,39 +296,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,14 +669,13 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="3.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="3.1640625" style="2" customWidth="1"/>
@@ -691,590 +685,604 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="22" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>1</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11">
         <v>2</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <v>5</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11">
         <v>5</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11">
         <v>2</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="11">
         <v>1</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="16">
         <f>SUM(B8:B38)</f>
         <v>52</v>
+      </c>
+      <c r="C39" s="17">
+        <f>SUM(C8:C38)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1290,14 +1298,14 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A8:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51388888888888884" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;CAPI -  plugin - Custom Post Type -Plugin de jQuery o Vanilla JS (JS sin nada de jQuery)</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B39" emptyCellReference="1"/>
+    <ignoredError sqref="B39:C39" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
